--- a/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/国土资源违法案件-导出.xlsx
+++ b/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/国土资源违法案件-导出.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19005" windowHeight="10950"/>
+    <workbookView windowWidth="19095" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>{Form=9}</t>
   </si>
@@ -33,9 +33,18 @@
     <t>{Node=112}</t>
   </si>
   <si>
+    <t>{Value=3}</t>
+  </si>
+  <si>
+    <t>{RateValue=1}</t>
+  </si>
+  <si>
     <t xml:space="preserve">    {Node=113}</t>
   </si>
   <si>
+    <t>{Value=1}</t>
+  </si>
+  <si>
     <t xml:space="preserve">        其中：{Node=114}</t>
   </si>
   <si>
@@ -57,6 +66,9 @@
     <t xml:space="preserve">    {Node=120}</t>
   </si>
   <si>
+    <t>{Value=5}</t>
+  </si>
+  <si>
     <t>{Node=121}</t>
   </si>
   <si>
@@ -79,6 +91,12 @@
   </si>
   <si>
     <t>{Area=1}</t>
+  </si>
+  <si>
+    <t>{Value=3 Node=112}</t>
+  </si>
+  <si>
+    <t>{Value=1 Node=113}</t>
   </si>
   <si>
     <t xml:space="preserve">    其中：{Area=2}</t>
@@ -110,12 +128,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,21 +142,124 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <name val="黑体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,127 +275,31 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,37 +326,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,139 +458,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,6 +519,15 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,9 +573,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,21 +587,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,13 +606,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,10 +628,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -615,137 +640,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -761,13 +786,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1093,7 +1121,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1130,118 +1158,170 @@
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="5" t="s">
+    <row r="16" ht="14.25" spans="1:4">
+      <c r="A16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="C16" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D17" s="2"/>
     </row>
@@ -1251,76 +1331,112 @@
       <c r="C18" s="4"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" ht="14.25" spans="1:4">
-      <c r="A19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+    <row r="19" spans="1:4">
+      <c r="A19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" ht="14.25" spans="1:4">
-      <c r="A20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+    <row r="20" spans="1:4">
+      <c r="A20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" ht="14.25" spans="1:4">
-      <c r="A21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+    <row r="21" spans="1:4">
+      <c r="A21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" ht="14.25" spans="1:4">
-      <c r="A22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+    <row r="22" spans="1:4">
+      <c r="A22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" ht="14.25" spans="1:4">
-      <c r="A23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+    <row r="23" spans="1:4">
+      <c r="A23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" ht="14.25" spans="1:4">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="C24" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" ht="14.25" spans="1:4">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" ht="14.25" spans="1:4">
-      <c r="A26" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+    <row r="26" spans="1:4">
+      <c r="A26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" ht="15" spans="1:4">
-      <c r="A27" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+    <row r="27" ht="14.25" spans="1:4">
+      <c r="A27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4">

--- a/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/国土资源违法案件-导出.xlsx
+++ b/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/国土资源违法案件-导出.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="7830"/>
+    <workbookView windowWidth="19005" windowHeight="10950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
-  <si>
-    <t>{Form=9}</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+  <si>
+    <t>{Form=8} 8</t>
   </si>
   <si>
     <t>国土资源违法案件查处情况（亩）</t>
@@ -30,97 +30,100 @@
     <t>{Rate}同比%</t>
   </si>
   <si>
-    <t>{Node=112}</t>
-  </si>
-  <si>
-    <t>{Value=3}</t>
+    <t>{Node=65}</t>
+  </si>
+  <si>
+    <t>{Value=2}</t>
   </si>
   <si>
     <t>{RateValue=1}</t>
   </si>
   <si>
-    <t xml:space="preserve">    {Node=113}</t>
+    <t xml:space="preserve">    {Node=66}</t>
   </si>
   <si>
     <t>{Value=1}</t>
   </si>
   <si>
-    <t xml:space="preserve">        其中：{Node=114}</t>
-  </si>
-  <si>
-    <t>{Node=115}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {Node=116}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        其中：{Node=117}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {Node=118}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {Node=119}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {Node=120}</t>
-  </si>
-  <si>
-    <t>{Value=5}</t>
-  </si>
-  <si>
-    <t>{Node=121}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {Node=122}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {Node=123}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {Node=124}</t>
+    <t xml:space="preserve">        其中：{Node=67}</t>
+  </si>
+  <si>
+    <t>{Node=68}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {Node=69}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        其中：{Node=70}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {Node=71}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {Node=72}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {Node=73}</t>
+  </si>
+  <si>
+    <t>{Value=4}</t>
+  </si>
+  <si>
+    <t>{Node=74}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {Node=75}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {Node=76}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {Node=77}</t>
   </si>
   <si>
     <t>分区土地违法案件立案</t>
   </si>
   <si>
-    <t>{Quarter}季度件数（件）</t>
-  </si>
-  <si>
-    <t>{Quarter}季度涉案面积（亩）</t>
+    <t>{Quarter}件数（件）</t>
+  </si>
+  <si>
+    <t>{Quarter}涉案面积（亩）</t>
   </si>
   <si>
     <t>{Area=1}</t>
   </si>
   <si>
-    <t>{Value=3 Node=112}</t>
-  </si>
-  <si>
-    <t>{Value=1 Node=113}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    其中：{Area=2}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          {Area=9}</t>
+    <t>{Value=2 Node=65}</t>
+  </si>
+  <si>
+    <t>{Value=1 Node=66}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其中:{Area=6}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          {Area=7}</t>
+  </si>
+  <si>
+    <t>{Area=2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其中：{Area=8}</t>
   </si>
   <si>
     <t>{Area=3}</t>
   </si>
   <si>
-    <t xml:space="preserve">    其中：{Area=10}</t>
+    <t xml:space="preserve">    其中：{Area=9}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          {Area=10}</t>
+  </si>
+  <si>
+    <t>{Area=4}</t>
   </si>
   <si>
     <t>{Area=5}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    其中：{Area=11}</t>
-  </si>
-  <si>
-    <t>{Area=4}</t>
-  </si>
-  <si>
-    <t>{Area=6}</t>
   </si>
 </sst>
 </file>
@@ -128,23 +131,30 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="黑体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF0099FF"/>
       <name val="黑体"/>
       <charset val="134"/>
     </font>
@@ -162,15 +172,121 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,120 +308,14 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,49 +324,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF0099FF"/>
+        <bgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,139 +522,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,7 +540,55 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color rgb="FF0099FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,6 +598,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,30 +634,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -581,45 +642,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -628,10 +650,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,7 +662,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -649,7 +671,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,142 +683,151 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -854,6 +885,7 @@
   <colors>
     <mruColors>
       <color rgb="000000FF"/>
+      <color rgb="000099FF"/>
     </mruColors>
   </colors>
 </styleSheet>
@@ -1121,17 +1153,17 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="24.375" customWidth="1"/>
-    <col min="3" max="3" width="26.75" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" ht="22" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1301,7 +1333,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" ht="14.25" spans="1:4">
+    <row r="16" spans="1:4">
       <c r="A16" s="6" t="s">
         <v>20</v>
       </c>
@@ -1416,7 +1448,7 @@
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -1427,22 +1459,28 @@
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" ht="14.25" spans="1:4">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:4">
+      <c r="A27" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="A28" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="D28" s="2"/>
     </row>
   </sheetData>
